--- a/web-app/docs/sprint_backlogs/sprint_3_backlog.xlsx
+++ b/web-app/docs/sprint_backlogs/sprint_3_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasnergard/programmering/inf-2900/INF-2900/web-app/docs/sprint_backlogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{207F8878-E5DE-FB4F-9F04-BD6E0F6523AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B3C330-B27D-634B-956E-30EB16B58C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="32760" windowHeight="20500" xr2:uid="{B0A344DE-C5D1-E14C-ADE1-D23B2A5A5F19}"/>
   </bookViews>
@@ -429,41 +429,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AB21D8-70AC-7444-B84F-7A3D365CCB9C}">
   <dimension ref="C3:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" workbookViewId="0">
-      <selection activeCell="W70" sqref="W70"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,56 +816,56 @@
     <row r="11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="22"/>
     </row>
     <row r="18" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28" t="s">
+      <c r="L18" s="25"/>
+      <c r="M18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="28" t="s">
+      <c r="N18" s="28"/>
+      <c r="O18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="28" t="s">
+      <c r="P18" s="28"/>
+      <c r="Q18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="30"/>
+      <c r="R18" s="28"/>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
@@ -1129,8 +1129,8 @@
       <c r="G31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="3"/>
       <c r="K31" s="2" t="s">
         <v>19</v>
@@ -1153,8 +1153,8 @@
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="5"/>
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
@@ -1311,8 +1311,8 @@
       <c r="G39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
       <c r="J39" s="3"/>
       <c r="K39" s="2" t="s">
         <v>19</v>
@@ -1335,8 +1335,8 @@
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="5"/>
       <c r="K40" s="4"/>
       <c r="L40" s="5"/>
@@ -1485,8 +1485,8 @@
       <c r="G47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
       <c r="J47" s="3"/>
       <c r="K47" s="2" t="s">
         <v>19</v>
@@ -1509,8 +1509,8 @@
       <c r="E48" s="13"/>
       <c r="F48" s="14"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="5"/>
       <c r="K48" s="4"/>
       <c r="L48" s="5"/>
@@ -1529,8 +1529,8 @@
       <c r="G49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
       <c r="J49" s="3"/>
       <c r="K49" s="2" t="s">
         <v>14</v>
@@ -1553,8 +1553,8 @@
       <c r="E50" s="16"/>
       <c r="F50" s="17"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="5"/>
       <c r="K50" s="4"/>
       <c r="L50" s="5"/>
@@ -1909,68 +1909,23 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="Q25:R26"/>
-    <mergeCell ref="C19:C32"/>
-    <mergeCell ref="D19:F32"/>
-    <mergeCell ref="G19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="G21:J24"/>
-    <mergeCell ref="K21:L24"/>
-    <mergeCell ref="M21:N24"/>
-    <mergeCell ref="G25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="C17:R17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="D33:F40"/>
-    <mergeCell ref="G33:J34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="G35:J36"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="G39:J40"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="G27:J30"/>
-    <mergeCell ref="Q49:R50"/>
-    <mergeCell ref="M27:N30"/>
-    <mergeCell ref="Q27:R30"/>
-    <mergeCell ref="G31:J32"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="Q31:R32"/>
-    <mergeCell ref="O33:P40"/>
-    <mergeCell ref="Q33:R34"/>
-    <mergeCell ref="Q35:R36"/>
-    <mergeCell ref="Q37:R38"/>
-    <mergeCell ref="K27:L30"/>
-    <mergeCell ref="O19:P32"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="Q21:R24"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="D41:F50"/>
-    <mergeCell ref="G41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="G43:J46"/>
-    <mergeCell ref="K43:L46"/>
-    <mergeCell ref="M43:N46"/>
-    <mergeCell ref="G47:J48"/>
-    <mergeCell ref="K47:L48"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="G49:J50"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="C51:C66"/>
+    <mergeCell ref="D51:F66"/>
+    <mergeCell ref="G51:J52"/>
+    <mergeCell ref="G57:J60"/>
+    <mergeCell ref="K57:L60"/>
+    <mergeCell ref="O51:P66"/>
+    <mergeCell ref="Q51:R52"/>
+    <mergeCell ref="G61:J62"/>
+    <mergeCell ref="K61:L62"/>
+    <mergeCell ref="M61:N62"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="G65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:N66"/>
+    <mergeCell ref="Q65:R66"/>
+    <mergeCell ref="M57:N60"/>
+    <mergeCell ref="Q57:R60"/>
     <mergeCell ref="G63:J64"/>
     <mergeCell ref="K63:L64"/>
     <mergeCell ref="M63:N64"/>
@@ -1987,23 +1942,68 @@
     <mergeCell ref="Q53:R56"/>
     <mergeCell ref="K51:L52"/>
     <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:P66"/>
-    <mergeCell ref="Q51:R52"/>
-    <mergeCell ref="G61:J62"/>
-    <mergeCell ref="K61:L62"/>
-    <mergeCell ref="M61:N62"/>
-    <mergeCell ref="Q61:R62"/>
-    <mergeCell ref="G65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:N66"/>
-    <mergeCell ref="Q65:R66"/>
-    <mergeCell ref="C51:C66"/>
-    <mergeCell ref="D51:F66"/>
-    <mergeCell ref="G51:J52"/>
-    <mergeCell ref="G57:J60"/>
-    <mergeCell ref="K57:L60"/>
-    <mergeCell ref="M57:N60"/>
-    <mergeCell ref="Q57:R60"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="D41:F50"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="G43:J46"/>
+    <mergeCell ref="K43:L46"/>
+    <mergeCell ref="M43:N46"/>
+    <mergeCell ref="G47:J48"/>
+    <mergeCell ref="K47:L48"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="G49:J50"/>
+    <mergeCell ref="K49:L50"/>
+    <mergeCell ref="Q49:R50"/>
+    <mergeCell ref="M27:N30"/>
+    <mergeCell ref="Q27:R30"/>
+    <mergeCell ref="G31:J32"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="Q31:R32"/>
+    <mergeCell ref="O33:P40"/>
+    <mergeCell ref="Q33:R34"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="K27:L30"/>
+    <mergeCell ref="O19:P32"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="Q21:R24"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="D33:F40"/>
+    <mergeCell ref="G33:J34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="G35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="G39:J40"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="C17:R17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="C19:C32"/>
+    <mergeCell ref="D19:F32"/>
+    <mergeCell ref="G19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="G21:J24"/>
+    <mergeCell ref="K21:L24"/>
+    <mergeCell ref="M21:N24"/>
+    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="G27:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
